--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2354.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2354.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8566033609092611</v>
+        <v>1.006780028343201</v>
       </c>
       <c r="B1">
-        <v>1.417258390682427</v>
+        <v>2.116267204284668</v>
       </c>
       <c r="C1">
-        <v>3.131326481112951</v>
+        <v>6.550631523132324</v>
       </c>
       <c r="D1">
-        <v>2.592190141350867</v>
+        <v>1.750497102737427</v>
       </c>
       <c r="E1">
-        <v>1.273559303666247</v>
+        <v>1.36799144744873</v>
       </c>
     </row>
   </sheetData>
